--- a/football_predictions_complete.xlsx
+++ b/football_predictions_complete.xlsx
@@ -16682,7 +16682,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -16697,16 +16697,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -16721,10 +16721,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -16754,7 +16754,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Luton Town</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -16769,10 +16769,10 @@
         </is>
       </c>
       <c r="E7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" t="n">
         <v>5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -16802,7 +16802,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Luton Town</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -16817,10 +16817,10 @@
         </is>
       </c>
       <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="n">
         <v>7</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -17018,14 +17018,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Sheffield United</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -17036,20 +17036,20 @@
         <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AFC Bournemouth</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -17060,20 +17060,20 @@
         <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>AFC Bournemouth</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -17084,20 +17084,20 @@
         <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sheffield United</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -17108,7 +17108,7 @@
         <v>3</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
